--- a/Instances/01_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/01_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -852,7 +852,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>9.9528</v>
+        <v>14.9448</v>
       </c>
       <c r="F2" t="n">
         <v>0.104</v>
@@ -886,7 +886,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4272</v>
+        <v>5.9904</v>
       </c>
       <c r="F3" t="n">
         <v>0.09920000000000001</v>
@@ -914,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>808</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>4.204800000000001</v>
+        <v>6.5952</v>
       </c>
       <c r="F4" t="n">
         <v>0.0192</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>855</v>
+        <v>808</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>1.752</v>
+        <v>2.748</v>
       </c>
       <c r="F5" t="n">
         <v>0.008</v>
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>855</v>
+        <v>808</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>3.1536</v>
+        <v>4.946400000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0.0144</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
@@ -1119,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1276,13 +1276,100 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
         <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>193</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46</v>
+      </c>
+      <c r="I6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>198</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>242</v>
+      </c>
+      <c r="H8" t="n">
+        <v>44</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.125</v>
+        <v>29.125</v>
       </c>
       <c r="H2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>9.375</v>
+        <v>9.125</v>
       </c>
     </row>
     <row r="3">
@@ -1395,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>48.75</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4375</v>
+        <v>8.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>13.6875</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="4">
@@ -1424,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.0625</v>
+        <v>50.75</v>
       </c>
       <c r="H4" t="n">
-        <v>9.625</v>
+        <v>9.84375</v>
       </c>
       <c r="I4" t="n">
-        <v>15.96875</v>
+        <v>17.0625</v>
       </c>
     </row>
     <row r="5">
@@ -1453,13 +1540,100 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>68.90625</v>
+        <v>57.1875</v>
       </c>
       <c r="H5" t="n">
-        <v>10.3125</v>
+        <v>10.546875</v>
       </c>
       <c r="I5" t="n">
         <v>17.34375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46.7421875</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.140625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.6796875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48.7265625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.58203125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.45703125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60.02734375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.9140625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.859375</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="3">
@@ -1499,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8760</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="4">
@@ -1507,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46428</v>
+        <v>20610</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1566,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1585,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1601,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1617,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1627,7 +1801,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1643,7 +1817,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1659,7 +1833,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
